--- a/DataCollection/GoodRunUsedForFigures/DataMassager.xlsx
+++ b/DataCollection/GoodRunUsedForFigures/DataMassager.xlsx
@@ -5,14 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Eclipse Workspace\PandemicSimulation\DataCollection\GoodRunUsedForFigures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Activation\Programming\Workspace\PandemicSimulation\DataCollection\GoodRunUsedForFigures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fig1 - WorldInfectionNoPlayer" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig2 - Fitness@EachGen" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig3 - Heatmaps" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig5 - Distribution of Actions" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Run</t>
   </si>
@@ -42,6 +45,24 @@
   </si>
   <si>
     <t>MAX-WORLD-INF</t>
+  </si>
+  <si>
+    <t>#ActionsPerTurn</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Treat</t>
+  </si>
+  <si>
+    <t>Move</t>
   </si>
 </sst>
 </file>
@@ -361,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,4 +3100,1434 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D4">
+        <v>84.722222222222214</v>
+      </c>
+      <c r="E4">
+        <v>46.527777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D5">
+        <v>75.694444444444443</v>
+      </c>
+      <c r="E5">
+        <v>41.666666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D6">
+        <v>52.777777777777779</v>
+      </c>
+      <c r="E6">
+        <v>34.027777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D7">
+        <v>45.833333333333329</v>
+      </c>
+      <c r="E7">
+        <v>32.638888888888893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D8">
+        <v>45.138888888888893</v>
+      </c>
+      <c r="E8">
+        <v>29.861111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D9">
+        <v>38.888888888888893</v>
+      </c>
+      <c r="E9">
+        <v>28.472222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D10">
+        <v>36.805555555555557</v>
+      </c>
+      <c r="E10">
+        <v>25.694444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D11">
+        <v>34.722222222222221</v>
+      </c>
+      <c r="E11">
+        <v>25.694444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D12">
+        <v>34.027777777777779</v>
+      </c>
+      <c r="E12">
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D13">
+        <v>31.944444444444443</v>
+      </c>
+      <c r="E13">
+        <v>23.611111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D14">
+        <v>31.944444444444443</v>
+      </c>
+      <c r="E14">
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D15">
+        <v>30.555555555555557</v>
+      </c>
+      <c r="E15">
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D16">
+        <v>30.555555555555557</v>
+      </c>
+      <c r="E16">
+        <v>21.527777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D17">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="E17">
+        <v>21.527777777777779</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D18">
+        <v>27.083333333333332</v>
+      </c>
+      <c r="E18">
+        <v>20.833333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D19">
+        <v>27.083333333333332</v>
+      </c>
+      <c r="E19">
+        <v>20.138888888888889</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D20">
+        <v>26.388888888888889</v>
+      </c>
+      <c r="E20">
+        <v>20.138888888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>19.444444444444446</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D22">
+        <v>24.305555555555554</v>
+      </c>
+      <c r="E22">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D23">
+        <v>22.916666666666664</v>
+      </c>
+      <c r="E23">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D24">
+        <v>22.916666666666664</v>
+      </c>
+      <c r="E24">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D25">
+        <v>22.916666666666664</v>
+      </c>
+      <c r="E25">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D26">
+        <v>22.222222222222221</v>
+      </c>
+      <c r="E26">
+        <v>15.972222222222221</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D27">
+        <v>20.833333333333336</v>
+      </c>
+      <c r="E27">
+        <v>15.277777777777779</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D28">
+        <v>20.833333333333336</v>
+      </c>
+      <c r="E28">
+        <v>15.277777777777779</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D29">
+        <v>20.138888888888889</v>
+      </c>
+      <c r="E29">
+        <v>14.583333333333334</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D30">
+        <v>20.138888888888889</v>
+      </c>
+      <c r="E30">
+        <v>14.583333333333334</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D31">
+        <v>20.138888888888889</v>
+      </c>
+      <c r="E31">
+        <v>13.194444444444445</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D32">
+        <v>18.75</v>
+      </c>
+      <c r="E32">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D33">
+        <v>18.75</v>
+      </c>
+      <c r="E33">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D34">
+        <v>18.055555555555554</v>
+      </c>
+      <c r="E34">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D35">
+        <v>17.361111111111111</v>
+      </c>
+      <c r="E35">
+        <v>11.805555555555555</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D36">
+        <v>17.361111111111111</v>
+      </c>
+      <c r="E36">
+        <v>11.805555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D37">
+        <v>17.361111111111111</v>
+      </c>
+      <c r="E37">
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D38">
+        <v>17.361111111111111</v>
+      </c>
+      <c r="E38">
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D39">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="E39">
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D40">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="E40">
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D41">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="E41">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D42">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="E42">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D43">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="E43">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D44">
+        <v>15.972222222222221</v>
+      </c>
+      <c r="E44">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D45">
+        <v>15.972222222222221</v>
+      </c>
+      <c r="E45">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D46">
+        <v>15.972222222222221</v>
+      </c>
+      <c r="E46">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D47">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="E47">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D48">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="E48">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D49">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="E49">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D50">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="E50">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D51">
+        <v>15.277777777777779</v>
+      </c>
+      <c r="E51">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D52">
+        <v>14.583333333333334</v>
+      </c>
+      <c r="E52">
+        <v>10.416666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>99.305555555555557</v>
+      </c>
+      <c r="D53">
+        <v>14.583333333333334</v>
+      </c>
+      <c r="E53">
+        <v>9.7222222222222232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.21666666666666601</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="E3">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <v>0.4</v>
+      </c>
+      <c r="G3">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="H3">
+        <v>0.05</v>
+      </c>
+      <c r="I3">
+        <v>1.36666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="C4">
+        <v>1.68333333333333</v>
+      </c>
+      <c r="D4">
+        <v>0.116666666666666</v>
+      </c>
+      <c r="E4">
+        <v>0.56666666666666599</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="H4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>3.3333333333333298E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="C5">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="D5">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E5">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="F5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G5">
+        <v>1.6666666666666601E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.4</v>
+      </c>
+      <c r="I5">
+        <v>0.46666666666666601</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="C6">
+        <v>1.2333333333333301</v>
+      </c>
+      <c r="D6">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="E6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G6">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="H6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="I6">
+        <v>0.31666666666666599</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="C7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.71666666666666601</v>
+      </c>
+      <c r="H7">
+        <v>1.9</v>
+      </c>
+      <c r="I7">
+        <v>0.38333333333333303</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>1.4833333333333301</v>
+      </c>
+      <c r="D8">
+        <v>0.15</v>
+      </c>
+      <c r="E8">
+        <v>0.2</v>
+      </c>
+      <c r="F8">
+        <v>0.116666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H8">
+        <v>1.38333333333333</v>
+      </c>
+      <c r="I8">
+        <v>0.41666666666666602</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.35</v>
+      </c>
+      <c r="C12">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="D12">
+        <v>1.56666666666666</v>
+      </c>
+      <c r="E12">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>2.2833333333333301</v>
+      </c>
+      <c r="H12">
+        <v>1.6</v>
+      </c>
+      <c r="I12">
+        <v>2.3166666666666602</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.1666666666666599</v>
+      </c>
+      <c r="C13">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>2.3166666666666602</v>
+      </c>
+      <c r="G13">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.2333333333333301</v>
+      </c>
+      <c r="I13">
+        <v>0.96666666666666601</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+      <c r="C14">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D14">
+        <v>1.1666666666666601</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <v>1.6</v>
+      </c>
+      <c r="G14">
+        <v>1.3</v>
+      </c>
+      <c r="H14">
+        <v>2.93333333333333</v>
+      </c>
+      <c r="I14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.45</v>
+      </c>
+      <c r="C15">
+        <v>2.43333333333333</v>
+      </c>
+      <c r="D15">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="E15">
+        <v>2.2833333333333301</v>
+      </c>
+      <c r="F15">
+        <v>2.75</v>
+      </c>
+      <c r="G15">
+        <v>1.63333333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I15">
+        <v>0.81666666666666599</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="C16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.2833333333333301</v>
+      </c>
+      <c r="E16">
+        <v>1.55</v>
+      </c>
+      <c r="F16">
+        <v>1.7333333333333301</v>
+      </c>
+      <c r="G16">
+        <v>2.1333333333333302</v>
+      </c>
+      <c r="H16">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="I16">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.2666666666666599</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.75</v>
+      </c>
+      <c r="E17">
+        <v>2.25</v>
+      </c>
+      <c r="F17">
+        <v>0.8</v>
+      </c>
+      <c r="G17">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.3833333333333302</v>
+      </c>
+      <c r="I17">
+        <v>1.36666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>62.5</v>
+      </c>
+      <c r="D4">
+        <v>37.5</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>62.5</v>
+      </c>
+      <c r="D10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>37.5</v>
+      </c>
+      <c r="D12">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>37.5</v>
+      </c>
+      <c r="D13">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>37.5</v>
+      </c>
+      <c r="D15">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>37.5</v>
+      </c>
+      <c r="D18">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>62.5</v>
+      </c>
+      <c r="D19">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>75</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>12.5</v>
+      </c>
+      <c r="D21">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>37.5</v>
+      </c>
+      <c r="D23">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>37.5</v>
+      </c>
+      <c r="D24">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>37.5</v>
+      </c>
+      <c r="D25">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>62.5</v>
+      </c>
+      <c r="D26">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>62.5</v>
+      </c>
+      <c r="D27">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>62.5</v>
+      </c>
+      <c r="D30">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>37.5</v>
+      </c>
+      <c r="D32">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>37.5</v>
+      </c>
+      <c r="D34">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>62.5</v>
+      </c>
+      <c r="D38">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>62.5</v>
+      </c>
+      <c r="D39">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>87.5</v>
+      </c>
+      <c r="D41">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>87.5</v>
+      </c>
+      <c r="D44">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>75</v>
+      </c>
+      <c r="D45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>37.5</v>
+      </c>
+      <c r="D48">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>62.5</v>
+      </c>
+      <c r="D49">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>75</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>87.5</v>
+      </c>
+      <c r="D51">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>37.5</v>
+      </c>
+      <c r="D53">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>62.5</v>
+      </c>
+      <c r="D54">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>50</v>
+      </c>
+      <c r="D55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>62.5</v>
+      </c>
+      <c r="D56">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>62.5</v>
+      </c>
+      <c r="D57">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>62.5</v>
+      </c>
+      <c r="D58">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>75</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>75</v>
+      </c>
+      <c r="D60">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>50</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>75</v>
+      </c>
+      <c r="D62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>75</v>
+      </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>